--- a/MEDIA/_ 1102     _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102     _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102     _301_2020-10-13~2020-10-13)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102     _301_2020-10-27~2020-10-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>35394338</v>
+        <v>12584515</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>樹林日新                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>存現                            </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27840</v>
+        <v>14702</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35422178</v>
+        <v>12599217</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000738</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>高雄苓雅                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>頂-新竹新莊-何武亮 暫收款+保證金            </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6000</v>
+        <v>110000</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35428178</v>
+        <v>12709217</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000708</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>龜山警大	                                   </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -528,29 +528,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30147</v>
+        <v>122794</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35458325</v>
+        <v>12832011</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>1000862</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蘇澳中山                                    </t>
+          <t>南崁奉化                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20928</v>
+        <v>8314</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>35479253</v>
+        <v>12840325</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000406</t>
+          <t>1000822</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>八德中正	                                   </t>
+          <t>北市敦北                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29238</v>
+        <v>26223</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>35508491</v>
+        <v>12866548</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000830</t>
+          <t>1000429</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三重仁義                                    </t>
+          <t>梧棲中興	                                   </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28033</v>
+        <v>17914</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35536524</v>
+        <v>12884462</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000405</t>
+          <t>1000898</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北市濟南	                                   </t>
+          <t>花蓮中山                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29406</v>
+        <v>28062</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35565930</v>
+        <v>12912524</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000816</t>
+          <t>1000882</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -733,17 +733,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>35586430</v>
+        <v>12932524</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>崙背建國                                    </t>
+          <t>大里大智	                                   </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40034</v>
+        <v>33114</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>35626464</v>
+        <v>12965638</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000790</t>
+          <t>1000943</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中壢中原	                                   </t>
+          <t>中壢九和                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>92002</v>
+        <v>18474</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35718466</v>
+        <v>12984112</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000917</t>
+          <t>1000742</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新店耕莘                                    </t>
+          <t>後龍中山                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30000</v>
+        <v>33060</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35748466</v>
+        <v>13017172</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000603</t>
+          <t>1000067</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>桃園大興                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11208</v>
+        <v>8369</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35759674</v>
+        <v>13025541</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>1000941</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斗六慶生	                                   </t>
+          <t>沙鹿北勢東	                                  </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12613</v>
+        <v>10507</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35772287</v>
+        <v>13036048</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000912</t>
+          <t>1000835</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>北市濟南	                                   </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3195</v>
+        <v>35153</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35775482</v>
+        <v>13071201</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>1000816</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中壢九和                                    </t>
+          <t>台南文南                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29985</v>
+        <v>15890</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35805467</v>
+        <v>13087091</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000742</t>
+          <t>1000074</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中壢環東中山                                  </t>
+          <t>新竹鐵道                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6005</v>
+        <v>15848</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35811472</v>
+        <v>13102939</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000817</t>
+          <t>1000525</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>員林北門	                                   </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12117</v>
+        <v>17954</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35823589</v>
+        <v>13120893</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000897</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>北市文德                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12860</v>
+        <v>10332</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>35836449</v>
+        <v>13131225</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000355</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>沙鹿北勢東	                                  </t>
+          <t>高雄城峰	                                   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15583</v>
+        <v>19032</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35852032</v>
+        <v>13150257</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000835</t>
+          <t>1000880</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>民雄文化                                    </t>
+          <t>台中永安                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35887032</v>
+        <v>13180257</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000854</t>
+          <t>1000785</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>花蓮中山                                    </t>
+          <t>西螺光復                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18234</v>
+        <v>24058</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35905266</v>
+        <v>13204315</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110637</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000882</t>
+          <t>1000282</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新竹鐵道                                    </t>
+          <t>員林建國                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11720</v>
+        <v>10470</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35916986</v>
+        <v>13214785</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110637</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000525</t>
+          <t>1000648</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金門金城                                    </t>
+          <t>北市忠孝復興                                  </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>53380</v>
+        <v>48543</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35970366</v>
+        <v>13263328</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000191</t>
+          <t>1000548</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>虎尾復興                                    </t>
+          <t>金門金城                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36206</v>
+        <v>57014</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>36006572</v>
+        <v>13320342</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000594</t>
+          <t>1000191</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>永和竹林                                    </t>
+          <t>頭份昌隆	                                   </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20086</v>
+        <v>78250</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36026658</v>
+        <v>13398592</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110680</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000573</t>
+          <t>1000949</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,38 +1462,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>員林北門	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯鼎貴-支付10-0115柯伊亭費用申請-高雄儲幹住宿費  </t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25109</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-17300</v>
       </c>
       <c r="G29" t="n">
-        <v>36051767</v>
+        <v>13381292</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110593</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000897</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,38 +1503,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>桃園中正長春	                                 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910月台北展NO.7-黃華琪(黃徐麗鳳 匯) 代尋2萬</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25853</v>
+        <v>20000</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>36077620</v>
+        <v>13401292</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110653</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000925</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1549,21 +1549,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>暫收-教室課信用卡付款-LINE PAY          </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20000</v>
+        <v>529</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>36097620</v>
+        <v>13401821</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1575,7 +1575,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1590,21 +1590,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10906台北展NO.125-蘇炳文-大里內新 3萬    </t>
+          <t>暫收-教室課信用卡付款-一卡通               </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30000</v>
+        <v>338</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>36127620</v>
+        <v>13402159</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,38 +1626,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>三重仁義                                    </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>261480</v>
+        <v>21463</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>36389100</v>
+        <v>13423622</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110594</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000405</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201028</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>楊梅校前	                                   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10906台北展NO.117-蕭惠文-北市光復 工程款   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>249740</v>
+        <v>19485</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36638840</v>
+        <v>13443107</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109995</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000939</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201028</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,38 +1708,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>大雅學府                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1499315</v>
+        <v>14209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>38138155</v>
+        <v>13457316</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000056</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201028</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>員林建國                                    </t>
+          <t>苗栗中正                                    </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15124</v>
+        <v>22462</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>38153279</v>
+        <v>13479778</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000648</t>
+          <t>1000788</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201028</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>楊梅青山                                    </t>
+          <t>大甲日南	                                   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19148</v>
+        <v>13440</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38172427</v>
+        <v>13493218</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000887</t>
+          <t>1000948</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201028</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,31 +1831,4459 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>太平勤益	                                   </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>13496218</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1000907</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>扶風堂                                     </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>11692</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>13507910</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>台中遼寧	                                   </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25622</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13533532</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000870</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汐止復興                                    </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>16063</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13549595</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1000285</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>內湖德安                                    </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>20040</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13569635</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1000211</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>竹北文興                                    </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>12025</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13581660</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1000903</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平鎮廣德                                    </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>17913</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13599573</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1000764</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>竹北三民	                                   </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>24171</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13623744</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1000843</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新莊富國                                    </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13634744</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>110692</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000208</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>高雄六合	                                   </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>12355</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13647099</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>110692</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000849</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平鎮豐頂                                    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>37809</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13684908</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>110692</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000805</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中壢中原	                                   </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>62071</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13746979</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>110692</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000917</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>羅東中山                                    </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>13105</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13760084</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>110692</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000387</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北市和平                                    </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>14876</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13774960</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>110692</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000414</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新店耕莘                                    </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>26239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13801199</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>110663</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000603</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>北市懷德                                    </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>20095</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13821294</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>110663</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1000349</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>竹北福興                                    </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>8522</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13829816</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1000716</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>高雄苓雅                                    </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>16300</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13846116</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1000708</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>內湖江南                                    </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>49211</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13895327</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000146</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>斗六慶生	                                   </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>9128</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>13904455</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000912</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>楊梅青山                                    </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>16189</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13920644</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1000887</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>堤諾台南崇學                                  </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>42194</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13962838</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4000018</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>虎尾復興                                    </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>40676</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>14003514</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1000594</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>堤諾長庚                                    </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>47377</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>14050891</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>4000024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>堤諾林口店                                   </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>13656</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>38186083</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>109921</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>54082</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14104973</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>4000023</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>北市南海	                                   </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>28636</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14133609</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>110663</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1000850</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>北市後港	                                   </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>33545</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>14167154</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1000845</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>876011</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15043165</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>110723</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汐止工建	                                   </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>33507</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>15076672</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>110663</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1000777</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新竹延平                                    </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>15091272</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>土城永寧	                                   </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>10693</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15101965</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1000935</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>楊梅青山                                    </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>5498</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15107463</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1000887</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>台北八德                                    </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>11105</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15118568</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>25614</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15144182</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>林口醒吾                                    </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>29539</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>15173721</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1000099</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>竹東仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>31253</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>15204974</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1000109</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新店建國                                    </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>43412</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15248386</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1000236</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>頭城新興                                    </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15258386</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1000333</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新豐新興                                    </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>37105</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15295491</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>110770</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1000018</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1497</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>15296988</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>板橋民族                                    </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>22872</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>15319860</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1000153</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中壢南園	                                   </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>16074</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>15335934</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1000866</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>彰化旭光	                                   </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>23839</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>15359773</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1000947</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>台中精科	                                   </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>17201</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>15376974</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1000890</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>桃園大興                                    </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>6685</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>15383659</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1000941</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>花壇中正                                    </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>30800</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>15414459</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1000382</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>高雄昌富                                    </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>17208</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>15431667</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>永和永利	                                   </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>26300</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>15457967</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1000954</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>神岡昌平	                                   </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>13118</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>15471085</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>支付永鉦-10-1577林堉鈖費用申請           </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-32340</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15438745</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>110049</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>北市杭州                                    </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>80441</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>15519186</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1000366</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>睿騏營造-第10期款-取得使用執照-單號2020-10-01</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-1120000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14399186</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>110687</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>睿騏營造-追加工程款-配合凍庫基礎工程增加40cm     </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-267592</v>
+      </c>
+      <c r="G90" t="n">
+        <v>14131594</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>110687</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>退訂/退代尋/退北市長春保證金-共3筆           </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-70500</v>
+      </c>
+      <c r="G91" t="n">
+        <v>14061094</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>110734</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>付淦鼎機電工程(有)公司-消防工程完成款          </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-813750</v>
+      </c>
+      <c r="G92" t="n">
+        <v>13247344</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>110690</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>付淦鼎機電工程(有)公司-消防工程完成款          </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-99050</v>
+      </c>
+      <c r="G93" t="n">
+        <v>13148294</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>110690</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10906台北展NO2賴景亭/陳郡甫/賴景豪-頭份昌榮 工程</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>330000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>13478294</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>110803</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>退訂-共3筆                        </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="G95" t="n">
+        <v>13476794</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>110768</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>玉山轉凱基森邦-500萬                  </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18476794</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>110641</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>支付10-1639謝雅蓮費用申請              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-520</v>
+      </c>
+      <c r="G97" t="n">
+        <v>18476274</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>支付10-1638黃凱祺費用申請              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-11990</v>
+      </c>
+      <c r="G98" t="n">
+        <v>18464284</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>支付10-1618任宇晨費用申請              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-1725</v>
+      </c>
+      <c r="G99" t="n">
+        <v>18462559</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>支付10-1644任宇晨費用申請              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2240</v>
+      </c>
+      <c r="G100" t="n">
+        <v>18460319</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>歐力士10月份租金(共6台車)               </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-218400</v>
+      </c>
+      <c r="G101" t="n">
+        <v>18241919</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>支付10-1647黃隆玄費用申請              </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-8920</v>
+      </c>
+      <c r="G102" t="n">
+        <v>18232999</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>支付10-1634黃追億費用申請              </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-3133</v>
+      </c>
+      <c r="G103" t="n">
+        <v>18229866</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>支付10-1641游宇宸費用申請              </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-3093</v>
+      </c>
+      <c r="G104" t="n">
+        <v>18226773</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>支付耿益芳費用申請                     </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-2432</v>
+      </c>
+      <c r="G105" t="n">
+        <v>18224341</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>支付10-1637陳世偉費用申請              </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-4707</v>
+      </c>
+      <c r="G106" t="n">
+        <v>18219634</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>支付10-1643胡毓樺費用申請              </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-1390</v>
+      </c>
+      <c r="G107" t="n">
+        <v>18218244</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>和運10月份租金(共9台車)                </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-313100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>17905144</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>順益10月份租金(共1台車)-續租1年           </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-31100</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17874044</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>支付富弘-10-1596陳紹軒費用申請           </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-5970</v>
+      </c>
+      <c r="G110" t="n">
+        <v>17868074</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>110636</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>退訂                            </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G111" t="n">
+        <v>17865574</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>110611</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>退訂                            </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-15500</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17850074</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>110617</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>退-湖口達生-保證金                    </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>17800074</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>110620</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>匯社團法人台灣連鎖加盟促進協會-10-1657邱柏敏費用申請</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-244000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17556074</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>110670</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>一次性廠商(收據,無正式憑證,EX:淘寶...)                </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-500</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17555574</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>110627</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>100169</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>一次性廠商(開發票)                              </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-5880</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17549694</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>110728</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>799999</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>17549674</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>110621</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>(結束)湖口達生                                </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-415</v>
+      </c>
+      <c r="G118" t="n">
+        <v>17549259</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>110621</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1000718</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>龍井竹坑                                    </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>16080</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>17565339</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1000515</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>梧棲中興	                                   </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>16883</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>17582222</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1000898</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>三重集美                                    </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>62535</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>17644757</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1000151</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>新營中正	                                   </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>10380</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>17655137</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1000834</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>北市南京松江	                                 </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>40160</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>17695297</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1000914</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>堤諾林口店                                   </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>22890</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>17718187</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>4000023</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>堤諾長庚                                    </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>48692</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>17766879</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>4000024</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>竹東長春	                                   </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>39581</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>17806460</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1000926</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南台科大	                                   </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>6725</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>17813185</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1000923</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>樹林日新                                    </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>33360</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>17846545</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1000738</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>北市五分	                                   </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>12020</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>17858565</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1000905</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>光泉食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>49026</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>17907591</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>5999872</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>光泉食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>49440</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>17957031</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>5999872</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>喀漢堡世貿店                                  </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>340734</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>18297765</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>3100001</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>堤諾莊敬                                    </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>347520</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>18645285</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>4000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>堤諾濟南                                    </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>405328</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>19050613</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>4000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>北市成都	                                   </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>21565</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>19072178</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1000955</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>堤諾士林中正	                                 </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>420693</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>19492871</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>4000020</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>瓦薩內科                                    </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>514917</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>20007788</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>神岡豐洲	                                   </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>19666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>20027454</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1000922</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>東勢東崎                                    </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>33966</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>20061420</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1000111</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>台中逢甲                                    </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>255230</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>20316650</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1000622</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>北市農安                                    </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>313589</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20630239</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1000750</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中壢中北                                    </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>252923</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>20883162</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1000826</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>北市愛國                                    </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>39888</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>20923050</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>1000433</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>三重光復                                    </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>70856</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>20993906</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1000781</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>北市杭州                                    </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>67520</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>21061426</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1000366</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>支付奇雲-10-1566林堉鈖費用申請           </t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-1260</v>
+      </c>
+      <c r="G146" t="n">
+        <v>21060166</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>110049</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
